--- a/StructureDefinition-ext-R5-ImagingStudy.series.xlsx
+++ b/StructureDefinition-ext-R5-ImagingStudy.series.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -586,7 +586,7 @@
     <t>Extension.extension:endpoint.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint)
 </t>
   </si>
   <si>
@@ -675,8 +675,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:concept.id</t>
@@ -694,7 +693,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-body-site-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference</t>
@@ -709,8 +708,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:bodySite.extension:reference.id</t>
@@ -725,7 +723,7 @@
     <t>Extension.extension:bodySite.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|0.0.1-snapshot-3|BodyStructure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-BodyStructure|BodyStructure)
 </t>
   </si>
   <si>
@@ -773,15 +771,6 @@
     <t>Extension.extension:laterality.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing body site laterality (left, right, etc.).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-dicom-cid-244-Laterality-for-R4-bodysite-laterality</t>
-  </si>
-  <si>
     <t>Extension.extension:specimen</t>
   </si>
   <si>
@@ -813,7 +802,7 @@
     <t>Extension.extension:specimen.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|0.0.1-snapshot-3|Specimen|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Specimen|Specimen)
 </t>
   </si>
   <si>
@@ -906,15 +895,6 @@
   </si>
   <si>
     <t>Extension.extension:performer.extension:function.value[x]</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of involvement of the performer.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-series-performer-function-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor</t>
@@ -946,7 +926,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -1465,8 +1445,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.28125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -7616,13 +7596,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7660,13 +7640,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7691,14 +7671,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7767,7 +7747,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -7870,7 +7850,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -7975,7 +7955,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8018,7 +7998,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8080,7 +8060,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8106,13 +8086,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8183,13 +8163,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8214,14 +8194,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8290,7 +8270,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8393,7 +8373,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -8498,7 +8478,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -8541,7 +8521,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8603,7 +8583,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -8629,13 +8609,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8706,13 +8686,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8737,16 +8717,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8815,7 +8795,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -8918,7 +8898,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9021,13 +9001,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -9052,14 +9032,14 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9128,7 +9108,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>194</v>
@@ -9231,7 +9211,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>196</v>
@@ -9336,7 +9316,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>198</v>
@@ -9379,7 +9359,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9421,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>201</v>
@@ -9470,10 +9450,10 @@
         <v>149</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9500,13 +9480,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -9544,13 +9524,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9575,14 +9555,14 @@
         <v>94</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9651,7 +9631,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>194</v>
@@ -9754,7 +9734,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>196</v>
@@ -9859,7 +9839,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>198</v>
@@ -9902,7 +9882,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9964,7 +9944,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>201</v>
@@ -9990,13 +9970,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10067,7 +10047,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10110,7 +10090,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10172,7 +10152,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>124</v>
@@ -10275,13 +10255,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10306,14 +10286,14 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10382,7 +10362,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -10485,7 +10465,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -10588,7 +10568,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>109</v>
@@ -10619,16 +10599,16 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10697,7 +10677,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>194</v>
@@ -10800,7 +10780,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>196</v>
@@ -10905,7 +10885,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>198</v>
@@ -10948,7 +10928,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11010,7 +10990,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>201</v>
@@ -11039,13 +11019,13 @@
         <v>125</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11115,13 +11095,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11146,14 +11126,14 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11222,7 +11202,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>194</v>
@@ -11325,7 +11305,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>196</v>
@@ -11430,7 +11410,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>198</v>
@@ -11473,7 +11453,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11515,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>201</v>
@@ -11561,13 +11541,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11638,7 +11618,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>109</v>
@@ -11669,14 +11649,14 @@
         <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11745,7 +11725,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>194</v>
@@ -11848,7 +11828,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>196</v>
@@ -11953,7 +11933,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>198</v>
@@ -11996,7 +11976,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12058,7 +12038,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>201</v>
@@ -12087,10 +12067,10 @@
         <v>138</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12161,13 +12141,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12192,16 +12172,16 @@
         <v>94</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12250,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>194</v>
@@ -12373,7 +12353,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>196</v>
@@ -12478,7 +12458,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>198</v>
@@ -12521,7 +12501,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12583,7 +12563,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>201</v>
@@ -12612,13 +12592,13 @@
         <v>87</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -12688,7 +12668,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -12731,7 +12711,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12793,7 +12773,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>124</v>
